--- a/biology/Médecine/Biofortification/Biofortification.xlsx
+++ b/biology/Médecine/Biofortification/Biofortification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La biofortification consiste à sélectionner des variétés de plantes cultivées dans le but d'augmenter leur  valeur nutritionnelle. Cela peut être fait soit par sélection conventionnelle (haricot commun, patate douce à chair orange), soit par génie génétique (cas emblématiques du riz doré, de la banane transgénique enrichie en fer). La biofortification diffère de l'enrichissement ordinaire car elle vise à rendre les aliments végétaux plus nutritifs au fur et à mesure de la croissance des plantes, plutôt que d’ajouter des nutriments aux aliments au cours du processus de transformation[1]. Il s'agit d'une amélioration importante par rapport à l'enrichissement ordinaire pour la fourniture d'éléments nutritifs aux populations rurales pauvres, qui ont rarement accès à des aliments enrichis commercialement[2]. En tant que telle, la biofortification est considérée comme une stratégie d'avenir pour traiter les problèmes de carences en micronutriments dans les pays à revenu faible et intermédiaire, grâce à des variétés biofortifiées. Dans le cas du fer, l'Organisation mondiale de la santé (OMS) a estimé que la biofortification pourrait aider à guérir les 2 milliards de personnes souffrant d'anémie provoquée par une carence en fer[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La biofortification consiste à sélectionner des variétés de plantes cultivées dans le but d'augmenter leur  valeur nutritionnelle. Cela peut être fait soit par sélection conventionnelle (haricot commun, patate douce à chair orange), soit par génie génétique (cas emblématiques du riz doré, de la banane transgénique enrichie en fer). La biofortification diffère de l'enrichissement ordinaire car elle vise à rendre les aliments végétaux plus nutritifs au fur et à mesure de la croissance des plantes, plutôt que d’ajouter des nutriments aux aliments au cours du processus de transformation. Il s'agit d'une amélioration importante par rapport à l'enrichissement ordinaire pour la fourniture d'éléments nutritifs aux populations rurales pauvres, qui ont rarement accès à des aliments enrichis commercialement. En tant que telle, la biofortification est considérée comme une stratégie d'avenir pour traiter les problèmes de carences en micronutriments dans les pays à revenu faible et intermédiaire, grâce à des variétés biofortifiées. Dans le cas du fer, l'Organisation mondiale de la santé (OMS) a estimé que la biofortification pourrait aider à guérir les 2 milliards de personnes souffrant d'anémie provoquée par une carence en fer.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les projets de biofortification débutent dans les années 1990  avec les travaux pionniers d'Howarth Bouis (en), économiste à l'Institut international de recherche sur les politiques alimentaires.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
